--- a/biology/Médecine/Myosite/Myosite.xlsx
+++ b/biology/Médecine/Myosite/Myosite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une myosite est une myopathie acquise et inflammatoire. C'est un groupe de maladies rares dégénératives, affectant les muscles squelettiques, et selon les formes la peau, les articulations et les poumons[1]. 
-Jusqu'en 2017, on distinguait trois grands groupes de myosites : polymyosite, dermatomyosite et myosite à inclusions[2]. Depuis 2018, une nouvelle classification en quatre types a été proposée par l'Inserm : myosite à inclusions, dermatomyosite, myopathie nécrosante auto-immune, syndrome des anti-synthétases (les polymyosites ne constituant plus un type de myosite en tant que tel)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une myosite est une myopathie acquise et inflammatoire. C'est un groupe de maladies rares dégénératives, affectant les muscles squelettiques, et selon les formes la peau, les articulations et les poumons. 
+Jusqu'en 2017, on distinguait trois grands groupes de myosites : polymyosite, dermatomyosite et myosite à inclusions. Depuis 2018, une nouvelle classification en quatre types a été proposée par l'Inserm : myosite à inclusions, dermatomyosite, myopathie nécrosante auto-immune, syndrome des anti-synthétases (les polymyosites ne constituant plus un type de myosite en tant que tel).
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +552,11 @@
           <t>Polymyosites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'abandon de cette ancienne classification a été proposée, en raison de l'hétérogénéité des formes rencontrées et des anticorps présents, et par conséquent des traitements à envisager[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'abandon de cette ancienne classification a été proposée, en raison de l'hétérogénéité des formes rencontrées et des anticorps présents, et par conséquent des traitements à envisager.
 </t>
         </is>
       </c>
@@ -569,11 +585,13 @@
           <t>Myopathie nécrosante auto-immune</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est caractérisée par une dégénération uniquement musculaire. Il s'agit de la forme la plus invalidante des myopathies. Elle est liée à la présence de deux anticorps spécifiques anti-SRP ou anti-HMGCR, cibles du traitement[3].
-Les anticorps anti-HMGCR peuvent apparaître après la prise de statines (inhibiteurs de la 3-hydroxy-3-méthylglutaryl-coenzyme A réductase), sous forme médicamenteuse[4] ou sans exposition identifiée[5]. Le caractère inflammatoire peut être absent[5].
-Exceptionnellement une piqûre d'insecte semble pouvoir causer une myosite musculaire[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est caractérisée par une dégénération uniquement musculaire. Il s'agit de la forme la plus invalidante des myopathies. Elle est liée à la présence de deux anticorps spécifiques anti-SRP ou anti-HMGCR, cibles du traitement.
+Les anticorps anti-HMGCR peuvent apparaître après la prise de statines (inhibiteurs de la 3-hydroxy-3-méthylglutaryl-coenzyme A réductase), sous forme médicamenteuse ou sans exposition identifiée. Le caractère inflammatoire peut être absent.
+Exceptionnellement une piqûre d'insecte semble pouvoir causer une myosite musculaire.
 </t>
         </is>
       </c>
@@ -602,9 +620,11 @@
           <t>Syndrome des anti-synthétases</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'atteinte musculaire est associée à une arthrite (se manifestant par un rhumatisme), et à une pneumonie interstitielle, se traduisant pas un essoufflement quelquefois très prononcé. Les anticorps anti-Jo1, anti-PL7 ou anti-PL12 pourraient en être responsables[3]. Parmi les symptômes, l'arthralgie, le phénomène de Raynaud, l'éruption héliotrope, la dysmotilité distale de l'œsophage et les mains de mécanicien lui sont quelquefois associés[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'atteinte musculaire est associée à une arthrite (se manifestant par un rhumatisme), et à une pneumonie interstitielle, se traduisant pas un essoufflement quelquefois très prononcé. Les anticorps anti-Jo1, anti-PL7 ou anti-PL12 pourraient en être responsables. Parmi les symptômes, l'arthralgie, le phénomène de Raynaud, l'éruption héliotrope, la dysmotilité distale de l'œsophage et les mains de mécanicien lui sont quelquefois associés.
 </t>
         </is>
       </c>
@@ -634,6 +654,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
